--- a/simulation_data/one_step_algorithm/1s_error_level_14_percent_water_20.xlsx
+++ b/simulation_data/one_step_algorithm/1s_error_level_14_percent_water_20.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>88.34176385156283</v>
+        <v>89.43702027846628</v>
       </c>
       <c r="D2" t="n">
-        <v>4.826890101122539</v>
+        <v>5.323884405140015</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>88.42483376318985</v>
+        <v>87.97394621198309</v>
       </c>
       <c r="D3" t="n">
-        <v>5.338618765070748</v>
+        <v>5.00649718654234</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>87.33444920379756</v>
+        <v>87.29436651035554</v>
       </c>
       <c r="D4" t="n">
-        <v>5.971829860216716</v>
+        <v>4.684598007568718</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>86.22004357254174</v>
+        <v>86.31684902945625</v>
       </c>
       <c r="D5" t="n">
-        <v>5.82700512451209</v>
+        <v>5.486354195385413</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>85.79879306041011</v>
+        <v>84.80234227675057</v>
       </c>
       <c r="D6" t="n">
-        <v>5.189707089516224</v>
+        <v>4.689426953304401</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>83.53480955974848</v>
+        <v>84.26011265853622</v>
       </c>
       <c r="D7" t="n">
-        <v>5.809096247944171</v>
+        <v>5.634168407226567</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>82.79400878989414</v>
+        <v>83.59558819933297</v>
       </c>
       <c r="D8" t="n">
-        <v>5.142166320420745</v>
+        <v>4.962288406311906</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>82.26338688444471</v>
+        <v>81.08377588766454</v>
       </c>
       <c r="D9" t="n">
-        <v>5.354673922790119</v>
+        <v>6.570906133358265</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>81.4194243401728</v>
+        <v>81.04378330705485</v>
       </c>
       <c r="D10" t="n">
-        <v>5.803980339871984</v>
+        <v>5.680138394776847</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>80.38989307234979</v>
+        <v>79.0035051090525</v>
       </c>
       <c r="D11" t="n">
-        <v>5.642443962201183</v>
+        <v>6.5351048687854</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>80.47085938326973</v>
+        <v>78.28842802664116</v>
       </c>
       <c r="D12" t="n">
-        <v>5.402447192593408</v>
+        <v>7.088343327915525</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>77.93924336260369</v>
+        <v>78.46181273799684</v>
       </c>
       <c r="D13" t="n">
-        <v>5.76860712228706</v>
+        <v>6.007720373639194</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>77.32606665033805</v>
+        <v>76.6538870272058</v>
       </c>
       <c r="D14" t="n">
-        <v>5.369435149225535</v>
+        <v>5.644880227736829</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>77.09962761388698</v>
+        <v>76.29099228886622</v>
       </c>
       <c r="D15" t="n">
-        <v>4.479326304035332</v>
+        <v>6.595013553317288</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>76.39557674445287</v>
+        <v>75.75921090864256</v>
       </c>
       <c r="D16" t="n">
-        <v>5.45757498111883</v>
+        <v>5.520140051945948</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>75.20615065871475</v>
+        <v>73.08727009673142</v>
       </c>
       <c r="D17" t="n">
-        <v>6.349128995382896</v>
+        <v>7.282191556378361</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>73.47047325077543</v>
+        <v>73.82262454396876</v>
       </c>
       <c r="D18" t="n">
-        <v>5.859095534510233</v>
+        <v>6.47403691553051</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>72.77589685651408</v>
+        <v>71.69818913579522</v>
       </c>
       <c r="D19" t="n">
-        <v>5.870152473723009</v>
+        <v>7.66592981031161</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>71.32444309911978</v>
+        <v>70.49823288996937</v>
       </c>
       <c r="D20" t="n">
-        <v>5.660351200744583</v>
+        <v>6.780006789341225</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>70.6035048654919</v>
+        <v>70.79056124271808</v>
       </c>
       <c r="D21" t="n">
-        <v>5.624061966190326</v>
+        <v>6.074364519289896</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>69.32581449499588</v>
+        <v>67.7561706887422</v>
       </c>
       <c r="D22" t="n">
-        <v>7.3313975396233</v>
+        <v>7.124493243185534</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>67.60812403021022</v>
+        <v>68.24974610283192</v>
       </c>
       <c r="D23" t="n">
-        <v>6.980501549838259</v>
+        <v>6.84005891119354</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>68.11591851060666</v>
+        <v>66.84298627900232</v>
       </c>
       <c r="D24" t="n">
-        <v>6.683846157412071</v>
+        <v>6.654949809038984</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>66.09024981087177</v>
+        <v>65.90709941630206</v>
       </c>
       <c r="D25" t="n">
-        <v>5.941745857451167</v>
+        <v>7.395299863426978</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>64.59413188226993</v>
+        <v>64.23109058732035</v>
       </c>
       <c r="D26" t="n">
-        <v>6.988695962929986</v>
+        <v>7.556399662459578</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>64.83397563059802</v>
+        <v>64.78706710266201</v>
       </c>
       <c r="D27" t="n">
-        <v>6.771067110786881</v>
+        <v>6.499006508499309</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>64.31211304543963</v>
+        <v>63.65563722995898</v>
       </c>
       <c r="D28" t="n">
-        <v>6.422117840203946</v>
+        <v>6.670877838572751</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>62.351773937319</v>
+        <v>62.83456620386885</v>
       </c>
       <c r="D29" t="n">
-        <v>6.285901700256393</v>
+        <v>7.114009067007615</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>60.49944783008829</v>
+        <v>61.19905087945011</v>
       </c>
       <c r="D30" t="n">
-        <v>7.661483698584207</v>
+        <v>7.471883750579807</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>59.9146844850944</v>
+        <v>59.75984010646994</v>
       </c>
       <c r="D31" t="n">
-        <v>7.921950054014854</v>
+        <v>7.520924616672386</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>59.80668300890657</v>
+        <v>58.47044411957806</v>
       </c>
       <c r="D32" t="n">
-        <v>7.294661077824281</v>
+        <v>7.783674801491302</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>57.48102767760468</v>
+        <v>57.56893921515918</v>
       </c>
       <c r="D33" t="n">
-        <v>8.719124539935775</v>
+        <v>7.871858217301426</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>56.36399475487757</v>
+        <v>57.49025529150344</v>
       </c>
       <c r="D34" t="n">
-        <v>7.948104483779866</v>
+        <v>7.803211519820168</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>57.2873030846992</v>
+        <v>55.9175816630087</v>
       </c>
       <c r="D35" t="n">
-        <v>7.231229829217535</v>
+        <v>8.931868191092164</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>55.05339156368603</v>
+        <v>54.42967207000299</v>
       </c>
       <c r="D36" t="n">
-        <v>7.465750722614763</v>
+        <v>7.785873651015088</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>53.98501910928266</v>
+        <v>55.08106850487317</v>
       </c>
       <c r="D37" t="n">
-        <v>7.708312225703074</v>
+        <v>7.943331477754862</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>52.8481664646646</v>
+        <v>53.44008962234662</v>
       </c>
       <c r="D38" t="n">
-        <v>8.733587397308161</v>
+        <v>7.669063950074168</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>50.61462715254866</v>
+        <v>51.45645581993604</v>
       </c>
       <c r="D39" t="n">
-        <v>8.96694125909819</v>
+        <v>8.672027378503556</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>51.8340892193053</v>
+        <v>49.79858181719408</v>
       </c>
       <c r="D40" t="n">
-        <v>7.020772139480177</v>
+        <v>7.602593993226862</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>49.63831664520476</v>
+        <v>50.33605534948223</v>
       </c>
       <c r="D41" t="n">
-        <v>8.565719406800191</v>
+        <v>7.817866019458216</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>49.63826468475824</v>
+        <v>48.49270319763922</v>
       </c>
       <c r="D42" t="n">
-        <v>8.125816815446539</v>
+        <v>8.391209217765352</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>48.34757647526703</v>
+        <v>47.14418054105586</v>
       </c>
       <c r="D43" t="n">
-        <v>8.150397199832613</v>
+        <v>9.741879565386698</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>47.98671557518443</v>
+        <v>46.95987702254462</v>
       </c>
       <c r="D44" t="n">
-        <v>6.752941189899765</v>
+        <v>7.50468613579979</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>44.45288796784689</v>
+        <v>45.01879465132031</v>
       </c>
       <c r="D45" t="n">
-        <v>8.49479098972389</v>
+        <v>8.535380200148586</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>45.03968775351704</v>
+        <v>44.98949312342027</v>
       </c>
       <c r="D46" t="n">
-        <v>8.839320677739426</v>
+        <v>7.216764048662568</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>42.46987850477822</v>
+        <v>41.63368224108638</v>
       </c>
       <c r="D47" t="n">
-        <v>9.494637869399911</v>
+        <v>10.08576562585643</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>42.40369130709426</v>
+        <v>43.7322754217656</v>
       </c>
       <c r="D48" t="n">
-        <v>7.637644220523273</v>
+        <v>8.841158882021638</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>42.27685327227577</v>
+        <v>40.24934020420184</v>
       </c>
       <c r="D49" t="n">
-        <v>8.17685053634977</v>
+        <v>8.624372947010126</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>40.60586996343387</v>
+        <v>40.59649846517299</v>
       </c>
       <c r="D50" t="n">
-        <v>8.991367001663873</v>
+        <v>9.870182101462357</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>39.82364186698386</v>
+        <v>38.72917902744508</v>
       </c>
       <c r="D51" t="n">
-        <v>9.232520854848179</v>
+        <v>8.865171483810817</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>38.95097938168815</v>
+        <v>37.37540285824944</v>
       </c>
       <c r="D52" t="n">
-        <v>9.95524576733798</v>
+        <v>10.002654850669</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>38.44998008054508</v>
+        <v>36.66554101442791</v>
       </c>
       <c r="D53" t="n">
-        <v>7.694246648376085</v>
+        <v>9.185732331575101</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>36.41586880933442</v>
+        <v>35.92396276620482</v>
       </c>
       <c r="D54" t="n">
-        <v>8.728492792349503</v>
+        <v>10.1603413041295</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>36.22791642886201</v>
+        <v>35.12582264813383</v>
       </c>
       <c r="D55" t="n">
-        <v>8.333370766658852</v>
+        <v>9.83330456412099</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>34.81375225271852</v>
+        <v>33.96817556799628</v>
       </c>
       <c r="D56" t="n">
-        <v>9.744498789313001</v>
+        <v>9.763278105240067</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>35.27758289395906</v>
+        <v>34.55328712411102</v>
       </c>
       <c r="D57" t="n">
-        <v>7.665492897549955</v>
+        <v>8.492328801334059</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>32.79678249122845</v>
+        <v>33.30015312063835</v>
       </c>
       <c r="D58" t="n">
-        <v>8.199550527941454</v>
+        <v>8.8831507206036</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>29.5877680355452</v>
+        <v>30.39005661950348</v>
       </c>
       <c r="D59" t="n">
-        <v>11.07992863878484</v>
+        <v>8.146069527684281</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>30.72388421110174</v>
+        <v>31.96181742192715</v>
       </c>
       <c r="D60" t="n">
-        <v>9.971834717207717</v>
+        <v>8.755638579463257</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>28.80029641998968</v>
+        <v>29.16666305249932</v>
       </c>
       <c r="D61" t="n">
-        <v>10.58571159226005</v>
+        <v>10.67219080331772</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>29.15756653169144</v>
+        <v>28.85257977015535</v>
       </c>
       <c r="D62" t="n">
-        <v>10.01290621573977</v>
+        <v>9.771125655853526</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>27.85452270931607</v>
+        <v>28.44890311843425</v>
       </c>
       <c r="D63" t="n">
-        <v>10.63868285556672</v>
+        <v>9.6555247505684</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>26.71488362909957</v>
+        <v>25.92266860940833</v>
       </c>
       <c r="D64" t="n">
-        <v>10.96837592611533</v>
+        <v>9.977166199740903</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>25.09578424879542</v>
+        <v>24.92266771280268</v>
       </c>
       <c r="D65" t="n">
-        <v>10.59167294031256</v>
+        <v>10.76174619079801</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>24.34151940665763</v>
+        <v>25.44139909830186</v>
       </c>
       <c r="D66" t="n">
-        <v>9.302936081770953</v>
+        <v>10.01539511462617</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>22.62662893369248</v>
+        <v>24.84499976781726</v>
       </c>
       <c r="D67" t="n">
-        <v>12.13265699844349</v>
+        <v>9.462189911512736</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>23.78881338109563</v>
+        <v>20.35092370845033</v>
       </c>
       <c r="D68" t="n">
-        <v>10.5060458243793</v>
+        <v>11.58530980339681</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>22.72765874743054</v>
+        <v>22.38814144295951</v>
       </c>
       <c r="D69" t="n">
-        <v>9.023478231012028</v>
+        <v>9.969108623763089</v>
       </c>
     </row>
   </sheetData>
